--- a/Files/Uploads/Assignee_Management.xlsx
+++ b/Files/Uploads/Assignee_Management.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -25,38 +25,38 @@
     <t>email</t>
   </si>
   <si>
-    <t>Shraddha</t>
-  </si>
-  <si>
-    <t>Snehal</t>
-  </si>
-  <si>
-    <t>Kirti</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
     <t>last</t>
   </si>
   <si>
-    <t>Gore</t>
-  </si>
-  <si>
-    <t>Gaonkar</t>
-  </si>
-  <si>
-    <t>Iyer</t>
-  </si>
-  <si>
     <t>scott.breslin@westhighland.net</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>efgh</t>
+  </si>
+  <si>
+    <t>lnmop</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>dfd</t>
+  </si>
+  <si>
+    <t>Jira</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,10 +179,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,7 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,25 +388,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="57.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -417,46 +417,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
